--- a/data/trans_orig/P6517-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82991259-C757-48F7-8238-887719635722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E12D6DF3-73C0-4581-92D9-5DFBD44AA684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41BE4039-6E1B-4913-97FD-C06831553864}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E970BCBD-38DC-4CF8-8CDE-6E4D4925F215}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,19 +74,19 @@
     <t>38,48%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
   </si>
   <si>
     <t>50,14%</t>
   </si>
   <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
   </si>
   <si>
     <t>43,18%</t>
@@ -95,7 +95,7 @@
     <t>36,89%</t>
   </si>
   <si>
-    <t>49,15%</t>
+    <t>49,56%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>34,62%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>21,62%</t>
   </si>
   <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,7 +197,7 @@
     <t>43,8%</t>
   </si>
   <si>
-    <t>37,4%</t>
+    <t>37,87%</t>
   </si>
   <si>
     <t>49,64%</t>
@@ -206,100 +206,97 @@
     <t>48,56%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>16,96%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -311,697 +308,706 @@
     <t>23,84%</t>
   </si>
   <si>
-    <t>38,39%</t>
+    <t>38,12%</t>
   </si>
   <si>
     <t>47,2%</t>
   </si>
   <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>36,31%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>38,72%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
     <t>30,62%</t>
   </si>
   <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,89%</t>
   </si>
   <si>
     <t>40,45%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
+    <t>50,22%</t>
   </si>
   <si>
     <t>53,3%</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
   </si>
   <si>
     <t>47,73%</t>
   </si>
   <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>17,13%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>18,51%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,16%</t>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>30,98%</t>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
   </si>
   <si>
     <t>14,68%</t>
@@ -1010,37 +1016,34 @@
     <t>12,54%</t>
   </si>
   <si>
-    <t>16,96%</t>
+    <t>17,12%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
+    <t>8,39%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>8,47%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>7,66%</t>
   </si>
   <si>
     <t>9,84%</t>
@@ -1458,7 +1461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E6A2DC-D80F-44D6-9017-31C6D1737E67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09985723-9AAB-4AF6-97FC-283B5423DA29}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,7 +1899,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -1905,13 +1908,13 @@
         <v>35904</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -1920,13 +1923,13 @@
         <v>94728</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1944,13 @@
         <v>59953</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1956,13 +1959,13 @@
         <v>21504</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -1971,13 +1974,13 @@
         <v>81457</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1995,13 @@
         <v>33237</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2007,13 +2010,13 @@
         <v>9885</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -2022,13 +2025,13 @@
         <v>43122</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,7 +2087,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2096,13 +2099,13 @@
         <v>53623</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2111,13 +2114,13 @@
         <v>44154</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>94</v>
@@ -2126,13 +2129,13 @@
         <v>97778</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2150,13 @@
         <v>61379</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -2162,13 +2165,13 @@
         <v>36229</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -2177,13 +2180,13 @@
         <v>97608</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2201,13 @@
         <v>52990</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2213,13 +2216,13 @@
         <v>11291</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -2228,13 +2231,13 @@
         <v>64281</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2252,13 @@
         <v>7711</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2264,13 +2267,13 @@
         <v>1881</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2279,13 +2282,13 @@
         <v>9591</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2344,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2353,13 +2356,13 @@
         <v>69934</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -2368,13 +2371,13 @@
         <v>56902</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -2383,13 +2386,13 @@
         <v>126836</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2407,13 @@
         <v>103161</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -2419,13 +2422,13 @@
         <v>56024</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -2434,13 +2437,13 @@
         <v>159184</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2458,13 @@
         <v>40484</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2470,13 +2473,13 @@
         <v>17304</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>56</v>
@@ -2485,13 +2488,13 @@
         <v>57787</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2509,13 @@
         <v>8176</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2521,13 +2524,13 @@
         <v>5855</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2536,13 +2539,13 @@
         <v>14031</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,7 +2601,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2610,13 +2613,13 @@
         <v>75556</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -2625,13 +2628,13 @@
         <v>39641</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>111</v>
@@ -2640,13 +2643,13 @@
         <v>115197</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2664,13 @@
         <v>14117</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2676,13 +2679,13 @@
         <v>3652</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2691,13 +2694,13 @@
         <v>17768</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2715,13 @@
         <v>18180</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2727,13 +2730,13 @@
         <v>4079</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2742,13 +2745,13 @@
         <v>22259</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,13 +2766,13 @@
         <v>3470</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2778,13 +2781,13 @@
         <v>2035</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -2793,13 +2796,13 @@
         <v>5505</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2858,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2867,13 +2870,13 @@
         <v>55970</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2882,13 +2885,13 @@
         <v>24546</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -2897,13 +2900,13 @@
         <v>80516</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,13 +2921,13 @@
         <v>51262</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -2933,13 +2936,13 @@
         <v>40982</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>87</v>
@@ -2948,13 +2951,13 @@
         <v>92243</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2972,13 @@
         <v>33851</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -2984,13 +2987,13 @@
         <v>13394</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -2999,13 +3002,13 @@
         <v>47245</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3023,13 @@
         <v>14935</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3035,13 +3038,13 @@
         <v>3895</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -3050,13 +3053,13 @@
         <v>18830</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,7 +3115,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3124,13 +3127,13 @@
         <v>119256</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>66</v>
@@ -3139,13 +3142,13 @@
         <v>71981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>179</v>
@@ -3154,13 +3157,13 @@
         <v>191237</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3178,13 @@
         <v>101175</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -3190,13 +3193,13 @@
         <v>75652</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>160</v>
@@ -3205,13 +3208,13 @@
         <v>176827</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P35" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3226,13 +3229,13 @@
         <v>73345</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3241,13 +3244,13 @@
         <v>23179</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>94</v>
@@ -3256,13 +3259,13 @@
         <v>96524</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,13 +3280,13 @@
         <v>41152</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -3292,13 +3295,13 @@
         <v>9736</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -3307,13 +3310,13 @@
         <v>50888</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,7 +3372,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3381,13 +3384,13 @@
         <v>209297</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H39" s="7">
         <v>119</v>
@@ -3396,13 +3399,13 @@
         <v>126814</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M39" s="7">
         <v>319</v>
@@ -3411,13 +3414,13 @@
         <v>336111</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3435,13 @@
         <v>91370</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -3447,13 +3450,13 @@
         <v>41019</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>130</v>
@@ -3462,13 +3465,13 @@
         <v>132389</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3486,13 @@
         <v>97270</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -3498,13 +3501,13 @@
         <v>40513</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>135</v>
@@ -3513,13 +3516,13 @@
         <v>137783</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,10 +3537,10 @@
         <v>68347</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>297</v>
@@ -3668,13 +3671,13 @@
         <v>1249467</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,7 +3698,7 @@
         <v>313</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>133</v>
+        <v>314</v>
       </c>
       <c r="H45" s="7">
         <v>305</v>
@@ -3704,13 +3707,13 @@
         <v>320448</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" s="7">
         <v>815</v>
@@ -3719,13 +3722,13 @@
         <v>858991</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3743,13 @@
         <v>411823</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H46" s="7">
         <v>148</v>
@@ -3755,13 +3758,13 @@
         <v>150240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M46" s="7">
         <v>547</v>
@@ -3770,13 +3773,13 @@
         <v>562064</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3791,13 +3794,13 @@
         <v>185777</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="H47" s="7">
         <v>67</v>
@@ -3809,10 +3812,10 @@
         <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>246</v>
@@ -3821,13 +3824,13 @@
         <v>254512</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,7 +3886,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E12D6DF3-73C0-4581-92D9-5DFBD44AA684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B502D2-0B42-4BDD-8990-541DCF93C7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E970BCBD-38DC-4CF8-8CDE-6E4D4925F215}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{222F30B8-DB85-451E-A2FE-1BD03BCD0A23}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>38,48%</t>
   </si>
   <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
   </si>
   <si>
     <t>50,14%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>43,18%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>34,62%</t>
   </si>
   <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
   </si>
   <si>
     <t>31,81%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>21,62%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>19,73%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,28 +164,28 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>5,25%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,106 +197,109 @@
     <t>43,8%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>48,56%</t>
   </si>
   <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>21,75%</t>
   </si>
   <si>
-    <t>16,96%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>27,44%</t>
   </si>
   <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>20,3%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -305,748 +308,724 @@
     <t>30,52%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
   </si>
   <si>
     <t>47,2%</t>
   </si>
   <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
   </si>
   <si>
     <t>36,31%</t>
   </si>
   <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
   </si>
   <si>
     <t>34,93%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>6,47%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
     <t>19,19%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>30,83%</t>
   </si>
   <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
   </si>
   <si>
     <t>27,61%</t>
   </si>
   <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>31,19%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>16,92%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,84%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,39%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>9,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1461,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09985723-9AAB-4AF6-97FC-283B5423DA29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2034667C-33B9-49BE-B63B-9324F465537B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1899,7 +1878,7 @@
         <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -1908,13 +1887,13 @@
         <v>35904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -1923,13 +1902,13 @@
         <v>94728</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1944,13 +1923,13 @@
         <v>59953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -1959,13 +1938,13 @@
         <v>21504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -1974,13 +1953,13 @@
         <v>81457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +1974,13 @@
         <v>33237</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -2010,13 +1989,13 @@
         <v>9885</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -2025,13 +2004,13 @@
         <v>43122</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,7 +2066,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2099,13 +2078,13 @@
         <v>53623</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -2114,13 +2093,13 @@
         <v>44154</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>94</v>
@@ -2129,13 +2108,13 @@
         <v>97778</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2129,13 @@
         <v>61379</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -2165,7 +2144,7 @@
         <v>36229</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>101</v>
@@ -2222,7 +2201,7 @@
         <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -2231,13 +2210,13 @@
         <v>64281</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2231,13 @@
         <v>7711</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2267,13 +2246,13 @@
         <v>1881</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2282,10 +2261,10 @@
         <v>9591</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>122</v>
@@ -2515,7 +2494,7 @@
         <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2524,13 +2503,13 @@
         <v>5855</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2539,13 +2518,13 @@
         <v>14031</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2580,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2592,13 @@
         <v>75556</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -2628,13 +2607,13 @@
         <v>39641</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>111</v>
@@ -2643,13 +2622,13 @@
         <v>115197</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2643,13 @@
         <v>14117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2679,13 +2658,13 @@
         <v>3652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2694,13 +2673,13 @@
         <v>17768</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2694,13 @@
         <v>18180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2730,13 +2709,13 @@
         <v>4079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2745,13 +2724,13 @@
         <v>22259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2745,13 @@
         <v>3470</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2781,13 +2760,13 @@
         <v>2035</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -2796,13 +2775,13 @@
         <v>5505</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,7 +2837,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2870,13 +2849,13 @@
         <v>55970</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2885,13 +2864,13 @@
         <v>24546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -2900,13 +2879,13 @@
         <v>80516</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2900,13 @@
         <v>51262</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -2936,13 +2915,13 @@
         <v>40982</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>87</v>
@@ -2951,13 +2930,13 @@
         <v>92243</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2951,13 @@
         <v>33851</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -2987,13 +2966,13 @@
         <v>13394</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -3002,13 +2981,13 @@
         <v>47245</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3002,13 @@
         <v>14935</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3038,13 +3017,13 @@
         <v>3895</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -3053,13 +3032,13 @@
         <v>18830</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3127,13 +3106,13 @@
         <v>119256</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>66</v>
@@ -3142,13 +3121,13 @@
         <v>71981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>179</v>
@@ -3157,13 +3136,13 @@
         <v>191237</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3157,13 @@
         <v>101175</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -3193,13 +3172,13 @@
         <v>75652</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>160</v>
@@ -3208,13 +3187,13 @@
         <v>176827</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3208,13 @@
         <v>73345</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3244,13 +3223,13 @@
         <v>23179</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>94</v>
@@ -3259,13 +3238,13 @@
         <v>96524</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3259,13 @@
         <v>41152</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -3295,13 +3274,13 @@
         <v>9736</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -3310,13 +3289,13 @@
         <v>50888</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3351,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3384,13 +3363,13 @@
         <v>209297</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H39" s="7">
         <v>119</v>
@@ -3399,13 +3378,13 @@
         <v>126814</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M39" s="7">
         <v>319</v>
@@ -3414,13 +3393,13 @@
         <v>336111</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3414,13 @@
         <v>91370</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -3450,13 +3429,13 @@
         <v>41019</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>130</v>
@@ -3465,13 +3444,13 @@
         <v>132389</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3465,13 @@
         <v>97270</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -3501,13 +3480,13 @@
         <v>40513</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M41" s="7">
         <v>135</v>
@@ -3516,13 +3495,13 @@
         <v>137783</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3516,13 @@
         <v>68347</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>28</v>
@@ -3552,13 +3531,13 @@
         <v>29573</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="M42" s="7">
         <v>96</v>
@@ -3567,13 +3546,13 @@
         <v>97920</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3620,13 @@
         <v>765745</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H44" s="7">
         <v>459</v>
@@ -3656,13 +3635,13 @@
         <v>483722</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M44" s="7">
         <v>1191</v>
@@ -3671,13 +3650,13 @@
         <v>1249467</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3671,13 @@
         <v>538543</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>305</v>
@@ -3707,13 +3686,13 @@
         <v>320448</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="M45" s="7">
         <v>815</v>
@@ -3722,13 +3701,13 @@
         <v>858991</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3722,13 @@
         <v>411823</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="H46" s="7">
         <v>148</v>
@@ -3758,13 +3737,13 @@
         <v>150240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>547</v>
@@ -3773,13 +3752,13 @@
         <v>562064</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>172</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3773,13 @@
         <v>185777</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>46</v>
+        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>67</v>
@@ -3809,13 +3788,13 @@
         <v>68735</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M47" s="7">
         <v>246</v>
@@ -3824,13 +3803,13 @@
         <v>254512</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,7 +3865,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B502D2-0B42-4BDD-8990-541DCF93C7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F15312-7BE3-4600-BEEF-7FBAE21FF7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{222F30B8-DB85-451E-A2FE-1BD03BCD0A23}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9349536-0652-4E00-A8CE-ED7DF1EC533A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="337">
   <si>
     <t>Población según si tienen periodos largos de intensa concentración durante las tareas de su trabajo en 2007 (Tasa respuesta: 42,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>38,48%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
   </si>
   <si>
     <t>50,14%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>43,18%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,928 +104,946 @@
     <t>34,62%</t>
   </si>
   <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>9,87%</t>
   </si>
   <si>
-    <t>7,42%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>22,89%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>17,13%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
+    <t>18,51%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
   </si>
   <si>
     <t>13,91%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>42,72%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
+    <t>40,81%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
+    <t>26,16%</t>
   </si>
   <si>
     <t>31,32%</t>
   </si>
   <si>
-    <t>28,35%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
   </si>
   <si>
     <t>29,37%</t>
   </si>
   <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>30,98%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>16,92%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>19,22%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>8,47%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>9,82%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1440,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2034667C-33B9-49BE-B63B-9324F465537B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B160E882-4B45-49E5-8C8A-DDEE8AF476A9}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2144,13 +2162,13 @@
         <v>36229</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -2159,13 +2177,13 @@
         <v>97608</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2198,13 @@
         <v>52990</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2195,13 +2213,13 @@
         <v>11291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -2210,13 +2228,13 @@
         <v>64281</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2249,13 @@
         <v>7711</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2246,13 +2264,13 @@
         <v>1881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2261,13 +2279,13 @@
         <v>9591</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2341,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2353,13 @@
         <v>69934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>57</v>
@@ -2350,13 +2368,13 @@
         <v>56902</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>128</v>
@@ -2365,13 +2383,13 @@
         <v>126836</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2404,13 @@
         <v>103161</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -2401,13 +2419,13 @@
         <v>56024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -2416,13 +2434,13 @@
         <v>159184</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2455,13 @@
         <v>40484</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -2452,13 +2470,13 @@
         <v>17304</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>56</v>
@@ -2467,13 +2485,13 @@
         <v>57787</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2506,13 @@
         <v>8176</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -2503,13 +2521,13 @@
         <v>5855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2518,13 +2536,13 @@
         <v>14031</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2598,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2610,13 @@
         <v>75556</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -2607,13 +2625,13 @@
         <v>39641</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>111</v>
@@ -2622,13 +2640,13 @@
         <v>115197</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2661,13 @@
         <v>14117</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2658,13 +2676,13 @@
         <v>3652</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2673,13 +2691,13 @@
         <v>17768</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2712,13 @@
         <v>18180</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -2709,13 +2727,13 @@
         <v>4079</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>20</v>
@@ -2724,13 +2742,13 @@
         <v>22259</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2763,13 @@
         <v>3470</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2760,13 +2778,13 @@
         <v>2035</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -2775,13 +2793,13 @@
         <v>5505</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2855,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2867,13 @@
         <v>55970</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2864,13 +2882,13 @@
         <v>24546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -2879,13 +2897,13 @@
         <v>80516</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2918,13 @@
         <v>51262</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>39</v>
@@ -2915,13 +2933,13 @@
         <v>40982</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>87</v>
@@ -2930,13 +2948,13 @@
         <v>92243</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2969,13 @@
         <v>33851</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>13</v>
@@ -2966,13 +2984,13 @@
         <v>13394</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>46</v>
@@ -2981,13 +2999,13 @@
         <v>47245</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +3020,13 @@
         <v>14935</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3017,13 +3035,13 @@
         <v>3895</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>19</v>
@@ -3032,13 +3050,13 @@
         <v>18830</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3112,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3124,13 @@
         <v>119256</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>66</v>
@@ -3121,13 +3139,13 @@
         <v>71981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>179</v>
@@ -3136,13 +3154,13 @@
         <v>191237</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3175,13 @@
         <v>101175</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -3172,13 +3190,13 @@
         <v>75652</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>160</v>
@@ -3187,13 +3205,13 @@
         <v>176827</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3226,13 @@
         <v>73345</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3223,13 +3241,13 @@
         <v>23179</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>94</v>
@@ -3238,13 +3256,13 @@
         <v>96524</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,10 +3280,10 @@
         <v>79</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>10</v>
@@ -3274,13 +3292,13 @@
         <v>9736</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>51</v>
@@ -3289,13 +3307,13 @@
         <v>50888</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,7 +3369,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3381,13 @@
         <v>209297</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H39" s="7">
         <v>119</v>
@@ -3378,13 +3396,13 @@
         <v>126814</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M39" s="7">
         <v>319</v>
@@ -3393,13 +3411,13 @@
         <v>336111</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3432,13 @@
         <v>91370</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -3429,13 +3447,13 @@
         <v>41019</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>130</v>
@@ -3444,13 +3462,13 @@
         <v>132389</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3483,13 @@
         <v>97270</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="H41" s="7">
         <v>39</v>
@@ -3480,13 +3498,13 @@
         <v>40513</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>135</v>
@@ -3495,13 +3513,13 @@
         <v>137783</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3534,13 @@
         <v>68347</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H42" s="7">
         <v>28</v>
@@ -3531,13 +3549,13 @@
         <v>29573</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M42" s="7">
         <v>96</v>
@@ -3546,13 +3564,13 @@
         <v>97920</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3638,13 @@
         <v>765745</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H44" s="7">
         <v>459</v>
@@ -3635,13 +3653,13 @@
         <v>483722</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="M44" s="7">
         <v>1191</v>
@@ -3650,13 +3668,13 @@
         <v>1249467</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>305</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3689,13 @@
         <v>538543</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>308</v>
+        <v>133</v>
       </c>
       <c r="H45" s="7">
         <v>305</v>
@@ -3686,13 +3704,13 @@
         <v>320448</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="M45" s="7">
         <v>815</v>
@@ -3701,13 +3719,13 @@
         <v>858991</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>312</v>
+        <v>72</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3740,13 @@
         <v>411823</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H46" s="7">
         <v>148</v>
@@ -3737,13 +3755,13 @@
         <v>150240</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>547</v>
@@ -3752,13 +3770,13 @@
         <v>562064</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3791,13 @@
         <v>185777</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>67</v>
@@ -3788,13 +3806,13 @@
         <v>68735</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>326</v>
+        <v>47</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="M47" s="7">
         <v>246</v>
@@ -3803,13 +3821,13 @@
         <v>254512</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3883,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6517-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6517-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2F15312-7BE3-4600-BEEF-7FBAE21FF7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F8C6B6-4735-44E2-802F-829556153EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9349536-0652-4E00-A8CE-ED7DF1EC533A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FBD21EBA-6BDE-48D4-9A4B-53CB9172DDFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1458,7 +1458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B160E882-4B45-49E5-8C8A-DDEE8AF476A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E43FFF0-DB2F-452F-93C1-1CB1403E03D9}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
